--- a/biology/Botanique/Myosotis_alpestris/Myosotis_alpestris.xlsx
+++ b/biology/Botanique/Myosotis_alpestris/Myosotis_alpestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Myosotis alpestre, Myosotis des Alpes ou Oreille de souris (Myosotis alpestris) est une espèce de plante herbacée de la famille des Boraginaceae et du genre Myosotis.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Myosotis alpestre mesure 5 à 30 cm de haut. Il a des feuilles elliptiques à oblongues-lancéolées, les radicales se rétrécissant progressivement en pétiole[1].
-Les méricarpes de 2 à 2,5 mm de long sont plus larges dans le milieu. Cette plante à fleurs bleues fleurit de juin à août[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Myosotis alpestre mesure 5 à 30 cm de haut. Il a des feuilles elliptiques à oblongues-lancéolées, les radicales se rétrécissant progressivement en pétiole.
+Les méricarpes de 2 à 2,5 mm de long sont plus larges dans le milieu. Cette plante à fleurs bleues fleurit de juin à août.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fréquent dans les sous-bois de hêtraies et de sapinières, pelouses maigres, éboulis stabilisés, pâturages maigres des Alpes, du Sud du Jura et des Pyrénées. Altitudes : 1 400 à 3 100 mètres, dans les montagnes Sud-européennes[2].
-Cette plante rustique a besoin d'un apport d'eau non-négligeable[3] qui provient de la fonte des neiges et elle tolère des températures hautement négatives jusqu'à −25 °C[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fréquent dans les sous-bois de hêtraies et de sapinières, pelouses maigres, éboulis stabilisés, pâturages maigres des Alpes, du Sud du Jura et des Pyrénées. Altitudes : 1 400 à 3 100 mètres, dans les montagnes Sud-européennes.
+Cette plante rustique a besoin d'un apport d'eau non-négligeable qui provient de la fonte des neiges et elle tolère des températures hautement négatives jusqu'à −25 °C.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Myosotis alpestre peut facilement se confondre avec :
 le Myosotis alpestris des bois qui est un Myosotis sylvatica ;
@@ -607,10 +625,12 @@
           <t>Histoire et symboles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Myosotis alpestre tient son nom du Grec « myos » (souris) et « otis » (oreille), ce qui lui vaut son surnom d'oreille de souris. C'est sous l'effet de la forme de ses feuilles qu'il porte ce nom[1].
-Le nom « Ne-m'oubliez-pas » que l'on donne particulièrement au Myosotis alpestre[4] remonte au moins au XVIe siècle. Le poète sud-tyrolien Hans Vintler (en), mort en 1419, mentionne le « Ne-m'oubliez-pas » à plusieurs reprises dans ses poèmes[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Myosotis alpestre tient son nom du Grec « myos » (souris) et « otis » (oreille), ce qui lui vaut son surnom d'oreille de souris. C'est sous l'effet de la forme de ses feuilles qu'il porte ce nom.
+Le nom « Ne-m'oubliez-pas » que l'on donne particulièrement au Myosotis alpestre remonte au moins au XVIe siècle. Le poète sud-tyrolien Hans Vintler (en), mort en 1419, mentionne le « Ne-m'oubliez-pas » à plusieurs reprises dans ses poèmes.
 </t>
         </is>
       </c>
